--- a/ky/downloads/data-excel/2.1.1.xlsx
+++ b/ky/downloads/data-excel/2.1.1.xlsx
@@ -698,11 +698,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -711,7 +709,7 @@
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
@@ -722,7 +720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -733,12 +731,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>36</v>
       </c>
@@ -817,8 +815,11 @@
       <c r="Z4" s="39">
         <v>2022</v>
       </c>
+      <c r="AA4" s="39">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -897,8 +898,11 @@
       <c r="Z5" s="15">
         <v>47.345690436648667</v>
       </c>
+      <c r="AA5" s="15">
+        <v>44.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
@@ -977,8 +981,11 @@
       <c r="Z6" s="20">
         <v>55.294335329978139</v>
       </c>
+      <c r="AA6" s="20">
+        <v>50.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -1057,8 +1064,11 @@
       <c r="Z7" s="20">
         <v>42.721146742902135</v>
       </c>
+      <c r="AA7" s="20">
+        <v>40.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1137,8 +1147,11 @@
       <c r="Z8" s="20">
         <v>56.732662465911261</v>
       </c>
+      <c r="AA8" s="20">
+        <v>57.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1230,11 @@
       <c r="Z9" s="20">
         <v>39.351829932862628</v>
       </c>
+      <c r="AA9" s="20">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -1297,8 +1313,11 @@
       <c r="Z10" s="20">
         <v>43.952035422218046</v>
       </c>
+      <c r="AA10" s="20">
+        <v>49.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
@@ -1377,8 +1396,11 @@
       <c r="Z11" s="20">
         <v>57.461907794486649</v>
       </c>
+      <c r="AA11" s="20">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
@@ -1457,8 +1479,11 @@
       <c r="Z12" s="20">
         <v>32.073481974524846</v>
       </c>
+      <c r="AA12" s="20">
+        <v>29.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
@@ -1537,8 +1562,11 @@
       <c r="Z13" s="20">
         <v>33.564455947162017</v>
       </c>
+      <c r="AA13" s="20">
+        <v>29.9</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
@@ -1617,8 +1645,11 @@
       <c r="Z14" s="20">
         <v>55.803694659011171</v>
       </c>
+      <c r="AA14" s="20">
+        <v>56.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -1697,8 +1728,11 @@
       <c r="Z15" s="20">
         <v>63.920911723512503</v>
       </c>
+      <c r="AA15" s="20">
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -1751,6 +1785,9 @@
       <c r="Z16" s="25">
         <v>52.521342498654128</v>
       </c>
+      <c r="AA16" s="25">
+        <v>34.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
